--- a/src/main/resources/static/file/엑셀업로드테스트_양식.xlsx
+++ b/src/main/resources/static/file/엑셀업로드테스트_양식.xlsx
@@ -16,44 +16,44 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*970705-2******</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*010-2719-7281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*예시와 맞게 등록해주세요</x:t>
+  </x:si>
+  <x:si>
     <x:t>*정현정</x:t>
   </x:si>
   <x:si>
     <x:t>전화번호</x:t>
   </x:si>
   <x:si>
-    <x:t>순번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
     <x:t>주민등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*970705-2******</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*예시와 맞게 등록해주세요, 첫줄을 비우시면 안됩니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*010-2719-7281</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="10">
+  <x:fonts count="9">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -94,11 +94,6 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff0000ff"/>
     </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
@@ -267,6 +262,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -280,9 +278,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1038,7 +1033,7 @@
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F3" activeCellId="0" sqref="F3:F3"/>
+      <x:selection activeCell="E24" activeCellId="0" sqref="E24:E24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1053,46 +1048,46 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="24" customHeight="1">
-      <x:c r="A1" s="8" t="s">
+      <x:c r="A1" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B1" s="9"/>
+      <x:c r="C1" s="9"/>
+      <x:c r="D1" s="9"/>
+      <x:c r="E1" s="9"/>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="8"/>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C3" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
+      <x:c r="D3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D3" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
